--- a/Parcial 1/Guia/Guia Parcial 1.xlsx
+++ b/Parcial 1/Guia/Guia Parcial 1.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmond\Documents\ITAM\Semestre 10\Herramientas Computacionales para Produccion Empresarial\hcp-repo\Parcial 1\Guia\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD870146-8F39-4A7C-B86C-E8F05A8CEEAB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="5730" windowHeight="8220" xr2:uid="{A00D4E9D-F716-47C4-87CE-C636627B197B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,17 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Funciones</t>
   </si>
   <si>
-    <t>&lt;- Cuenta celdas con valores numericos</t>
-  </si>
-  <si>
-    <t>&lt;- Cuenta celdas con valores</t>
-  </si>
-  <si>
     <t>&lt;- El producto de todos los numeros pares menores o iguales que el argumento</t>
   </si>
   <si>
@@ -59,12 +55,6 @@
     <t>=BUSCARV</t>
   </si>
   <si>
-    <t>=RAIZ</t>
-  </si>
-  <si>
-    <t>=RESIDUO</t>
-  </si>
-  <si>
     <t>=POTENCIA</t>
   </si>
   <si>
@@ -77,9 +67,6 @@
     <t>=INDICE</t>
   </si>
   <si>
-    <t>&lt;- Especificar, matriz, fila y columna, y devuelve el valor en la matriz</t>
-  </si>
-  <si>
     <t>=SUMAR.SI.CONJUNTO</t>
   </si>
   <si>
@@ -167,10 +154,97 @@
     <t>=ALEATORIO.ENTRE(cota inferior, cota superior)</t>
   </si>
   <si>
-    <t>=SI(expresion logica, valor verdadero, valor falso)</t>
-  </si>
-  <si>
     <t>=Y(expresiones logicas)</t>
+  </si>
+  <si>
+    <t>&lt;- Suma el rango de valores</t>
+  </si>
+  <si>
+    <t>&lt;- Cuenta la cantidad de celdas que tienen números en el rengo seleccionado</t>
+  </si>
+  <si>
+    <t>&lt;- Cuenta el numero de celdas que no estan vacías en el rango seleccionado</t>
+  </si>
+  <si>
+    <t>&lt;- Cuenta el numero de caldas que están vacías en el rengo seleccionado</t>
+  </si>
+  <si>
+    <t>&lt;- Contar el número de celdas que cumplen un criterio</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>&lt;- Devuelve el k-ésimo mayor valor de un conjunto de datos. El conjunto de datos puede ser una matriz</t>
+  </si>
+  <si>
+    <t>&lt;- Devuelve el máximo valor en el rango seleccionado</t>
+  </si>
+  <si>
+    <t>&lt;- Devuelve el mínimo valor en el rango seleccionado</t>
+  </si>
+  <si>
+    <t>&lt;- Devuelve el promedio de los valores en el rengo seleccionado</t>
+  </si>
+  <si>
+    <t>&lt;- Devuelve el valor absoluto del valor seleccionado</t>
+  </si>
+  <si>
+    <t>&lt;- Devuelve el número redondeado a los decimales especficados</t>
+  </si>
+  <si>
+    <t>&lt;- Redondea el número hasta el entero impar más próximo y lejano a cero</t>
+  </si>
+  <si>
+    <t>&lt;- Redondea el número hasta el entero par más próximo y lejano a cero</t>
+  </si>
+  <si>
+    <t>&lt;- Quitar los decimales</t>
+  </si>
+  <si>
+    <t>&lt;- Función piso</t>
+  </si>
+  <si>
+    <t>&lt;- Devuelve un número uniformemente distribuido entre 0 y 1</t>
+  </si>
+  <si>
+    <t>&lt;- Devuelve enteros aleatorios entre los enteros especificados</t>
+  </si>
+  <si>
+    <t>=RESIDUO(numero, divisor)</t>
+  </si>
+  <si>
+    <t>&lt;- Función módulo</t>
+  </si>
+  <si>
+    <t>&lt;- Devuelve un número uniformemente distribuido entre a y b</t>
+  </si>
+  <si>
+    <t>&lt;- Devuelve un número uniformemente distribuido entre a y b redondeado a n decimales</t>
+  </si>
+  <si>
+    <t>=SI(expresion logica, valor_si_verdadero, valor_si_falso)</t>
+  </si>
+  <si>
+    <t>=RAIZ(numero, potencia)</t>
+  </si>
+  <si>
+    <t>&lt;- Devuelve la raiz de un número</t>
+  </si>
+  <si>
+    <t>&lt;- Elevar un numero</t>
+  </si>
+  <si>
+    <t>=IZQUIERDA()</t>
+  </si>
+  <si>
+    <t>=DERECHA()</t>
+  </si>
+  <si>
+    <t>&lt;- seleccionar caracteres de alguna palabra</t>
+  </si>
+  <si>
+    <t>&lt;- Seleccionarcaracteres de alguna palabra</t>
   </si>
 </sst>
 </file>
@@ -186,20 +260,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -214,10 +292,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B21E5E-7D57-4D66-9038-090568D27946}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -550,236 +630,328 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>18</v>
+      <c r="A38" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>20</v>
+      <c r="A39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
         <v>23</v>
       </c>
-      <c r="B44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>26</v>
+      <c r="A47" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D821F036-277F-4A1A-99C8-DF93DCC844BA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>